--- a/results/I3_N5_M2_T30_C200_DepCentral_s0_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>844.3335113734399</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.039000034332275</v>
+        <v>0.3600001335144043</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.20351137317892</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1674514855114759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1674514855114759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>670.6900000002609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.44</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -758,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.35124120223183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.8587541337728</v>
+        <v>23.88634790002127</v>
       </c>
     </row>
     <row r="5">
@@ -887,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>22.37739353073906</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.12712520468738</v>
+        <v>27.07084158034155</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,20 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.7200000000107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>168.6450000000086</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>175.9100000000118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1101,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>167.0050000000085</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1112,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>178.6300000000114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>210.05</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1134,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>201.3050000000111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1145,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>209.9450000000089</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1156,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>210.3250000000095</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1167,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>207.4900000000101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54500000000459</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1189,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51500000000416</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0700000000053</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1211,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09500000000344</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7800000000048</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.7900000000041</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1244,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44000000000577</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1255,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.2200000000048</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1266,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36500000000481</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1277,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.54000000000562</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1288,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>244.9400000000161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
@@ -1299,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>255.9900000000163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1310,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>267.3900000000178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
@@ -1321,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>258.8650000000123</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
@@ -1332,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>269.0450000000204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32">
@@ -1343,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>210.05</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -1354,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>201.305000000013</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -1365,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>209.9450000000108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -1376,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>210.3250000000114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1387,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>207.490000000012</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>244.9400000000174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -1409,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>255.9900000000176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39">
@@ -1420,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>267.3900000000192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
@@ -1431,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>258.8650000000137</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41">
@@ -1442,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>269.0450000000218</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1500,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.305000000012342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1511,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.945000000010168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1522,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.32500000001073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1533,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.490000000011264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1544,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>44.94000000001654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1555,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>55.99000000001689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1566,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>67.39000000001846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1577,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>58.86500000001297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1588,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>69.04500000002105</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1701,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1712,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1723,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1734,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1800,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1811,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1822,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1833,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1844,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1913,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,116 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
